--- a/Applied_plotting/week_4/weather datasets.xlsx
+++ b/Applied_plotting/week_4/weather datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbe5a0d9007eef8b/Escritorio/Documentos/PYTHON/applied_data_science/Applied_plotting/week_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2C575B3B-A52C-4E65-92E4-61881A9E5CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{2C575B3B-A52C-4E65-92E4-61881A9E5CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{562DD913-DF5F-4254-B80A-A66F11946A7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1FCAFFE4-B38B-493F-88D1-09326737FA27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FCAFFE4-B38B-493F-88D1-09326737FA27}"/>
   </bookViews>
   <sheets>
     <sheet name="ann_arbor" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Temp.</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Ann Arbor</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8549816D-3F96-4E06-9137-AB0FEE198D42}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9">
         <v>24</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9">
         <v>19</v>
@@ -745,15 +745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31BC263-98BE-4E52-B2EB-EA10942E46AD}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -835,7 +833,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9">
         <v>57</v>
@@ -876,7 +874,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9">
         <v>44</v>

--- a/Applied_plotting/week_4/weather datasets.xlsx
+++ b/Applied_plotting/week_4/weather datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbe5a0d9007eef8b/Escritorio/Documentos/PYTHON/applied_data_science/Applied_plotting/week_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{2C575B3B-A52C-4E65-92E4-61881A9E5CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{562DD913-DF5F-4254-B80A-A66F11946A7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{64AB3FAC-D9EE-4266-AC89-F6A03086851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FCAFFE4-B38B-493F-88D1-09326737FA27}"/>
   </bookViews>
